--- a/evaluation/memory-footprint/results/memory_footprint.xlsx
+++ b/evaluation/memory-footprint/results/memory_footprint.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Majid\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ Projects\heap-isolation\evaluation\memory-footprint\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A0A5CC-2BE4-4477-B78A-8A7EEA7873F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6217B1-B1A3-463F-A85C-D7EA2C2440A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C97128D-8888-49D2-A6E7-762D2B687F99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7C97128D-8888-49D2-A6E7-762D2B687F99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t># Tenants</t>
   </si>
@@ -49,6 +50,18 @@
   </si>
   <si>
     <t>TW</t>
+  </si>
+  <si>
+    <t>Reduction-B</t>
+  </si>
+  <si>
+    <t>Reduction-W</t>
+  </si>
+  <si>
+    <t>Best Case Reduction (%)</t>
+  </si>
+  <si>
+    <t>Worst Case Reduction (%)</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1793,620 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Best Case</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>80.705501074982493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.818834993209279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.857165818135286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.376847400233927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.288843013018791</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.896918659926357</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.331296921617223</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.657101683170211</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.910517870812072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.11325868650141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5ABA-4594-9767-BE7738247C95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Worst Case</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32.754474867063422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.713525400140178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.401019140568863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.247662206712732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.756279942862847</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.095603687868213</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.338096995521674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.520032153195537</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.661575914830621</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.774835275540688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5ABA-4594-9767-BE7738247C95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2077927840"/>
+        <c:axId val="2077928256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2077927840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> of Tenants</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="1">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077928256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2077928256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Footprint</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> Reduction (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="1">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077927840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.3780183727034124E-2"/>
+          <c:y val="0.7615336103820356"/>
+          <c:w val="0.37008311461067367"/>
+          <c:h val="7.8537839020122485E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2336,18 +2962,521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
@@ -2357,6 +3486,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F15DC5-9FA6-4FEF-B034-58E6200F8F82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0F7D13-A843-4D1A-B62C-18ACE1471FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2674,18 +3844,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39BD8BC-F63B-41CD-A5F4-4A7FB7B752C7}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" activeCellId="19" sqref="G11 F21 G21 F31 G31 F41 G41 F51 G51 F61 G61 F71 G71 F81 G81 F91 G91 F101 G101 F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2701,8 +3873,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -2719,8 +3897,16 @@
       <c r="E2">
         <v>391.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>((B2-C2)/B2)*100</f>
+        <v>-81.596587446678853</v>
+      </c>
+      <c r="G2">
+        <f>((D2-E2)/D2)*100</f>
+        <v>-46.724073380756245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
         <v>2</v>
@@ -2737,8 +3923,16 @@
       <c r="E3">
         <v>610.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="1">((B3-C3)/B3)*100</f>
+        <v>7.6807228915662771</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="2">((D3-E3)/D3)*100</f>
+        <v>-11.851987543506146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2755,8 +3949,16 @@
       <c r="E4">
         <v>715.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>38.839645447219986</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>9.9735882278958705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2773,8 +3975,16 @@
       <c r="E5">
         <v>860.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>53.31010452961673</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>19.402565783313047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2791,8 +4001,16 @@
       <c r="E6">
         <v>1024</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>62.621359223300978</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>21.986896236477214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2813,2073 +4031,2974 @@
         <f>_xlfn.FORECAST.LINEAR(A7,E2:E6,A2:A6)</f>
         <v>1174.8900000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>68.538633309420121</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>25.716037986368406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B71" si="1">_xlfn.FORECAST.LINEAR(A8,B3:B7,A3:A7)</f>
+        <f t="shared" ref="B8:B71" si="3">_xlfn.FORECAST.LINEAR(A8,B3:B7,A3:A7)</f>
         <v>115.33320000000001</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C71" si="2">_xlfn.FORECAST.LINEAR(A8,C3:C7,A3:A7)</f>
+        <f t="shared" ref="C8:C71" si="4">_xlfn.FORECAST.LINEAR(A8,C3:C7,A3:A7)</f>
         <v>31.177599999999998</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D71" si="3">_xlfn.FORECAST.LINEAR(A8,D3:D7,A3:A7)</f>
+        <f t="shared" ref="D8:D71" si="5">_xlfn.FORECAST.LINEAR(A8,D3:D7,A3:A7)</f>
         <v>1837.3060000000003</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E71" si="4">_xlfn.FORECAST.LINEAR(A8,E3:E7,A3:A7)</f>
+        <f t="shared" ref="E8:E71" si="6">_xlfn.FORECAST.LINEAR(A8,E3:E7,A3:A7)</f>
         <v>1308.2320000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>72.967367592332479</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>28.796183107223293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9">
+        <f t="shared" si="3"/>
+        <v>131.77406000000002</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="4"/>
+        <v>31.444580000000002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="5"/>
+        <v>2098.3448000000003</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="6"/>
+        <v>1466.4406000000001</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="1"/>
-        <v>131.77406000000002</v>
-      </c>
-      <c r="C9">
+        <v>76.137503845597536</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="2"/>
-        <v>31.444580000000002</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="3"/>
-        <v>2098.3448000000003</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="4"/>
-        <v>1466.4406000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.11441208327631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10">
+        <f t="shared" si="3"/>
+        <v>148.23564800000003</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>31.563864000000002</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="5"/>
+        <v>2355.2328400000006</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="6"/>
+        <v>1615.56648</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="1"/>
-        <v>148.23564800000003</v>
-      </c>
-      <c r="C10">
+        <v>78.706967975746295</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="2"/>
-        <v>31.563864000000002</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="3"/>
-        <v>2355.2328400000006</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="4"/>
-        <v>1615.56648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.405232953528301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11">
+        <f t="shared" si="3"/>
+        <v>164.68528840000005</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>31.775201200000001</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="5"/>
+        <v>2617.6178720000007</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="6"/>
+        <v>1760.2308840000001</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="1"/>
-        <v>164.68528840000005</v>
-      </c>
-      <c r="C11">
+        <v>80.705501074982493</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="2"/>
-        <v>31.775201200000001</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="3"/>
-        <v>2617.6178720000007</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="4"/>
-        <v>1760.2308840000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32.754474867063422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12">
+        <f t="shared" si="3"/>
+        <v>181.09994672000005</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>31.918448960000003</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="5"/>
+        <v>2875.0010776000008</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="6"/>
+        <v>1908.4768672000002</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="1"/>
-        <v>181.09994672000005</v>
-      </c>
-      <c r="C12">
+        <v>82.375230065998124</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="2"/>
-        <v>31.918448960000003</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="3"/>
-        <v>2875.0010776000008</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="4"/>
-        <v>1908.4768672000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33.618220804523581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13">
+        <f t="shared" si="3"/>
+        <v>197.55904517600007</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>32.119634568000002</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="5"/>
+        <v>3135.0994860800015</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="6"/>
+        <v>2060.0733717600001</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="1"/>
-        <v>197.55904517600007</v>
-      </c>
-      <c r="C13">
+        <v>83.741754502110751</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="2"/>
-        <v>32.119634568000002</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="3"/>
-        <v>3135.0994860800015</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="4"/>
-        <v>2060.0733717600001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34.290015965782622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14">
+        <f t="shared" si="3"/>
+        <v>214.0010783808001</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>32.275753974400004</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="5"/>
+        <v>3394.2424980640021</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="6"/>
+        <v>2206.2104198080001</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="1"/>
-        <v>214.0010783808001</v>
-      </c>
-      <c r="C14">
+        <v>84.917947975492197</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="2"/>
-        <v>32.275753974400004</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="3"/>
-        <v>3394.2424980640021</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="4"/>
-        <v>2206.2104198080001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35.00139070598604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15">
+        <f t="shared" si="3"/>
+        <v>230.43758659664007</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>32.461044535520003</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>3654.0890338112022</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="6"/>
+        <v>2354.4507147664003</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="1"/>
-        <v>230.43758659664007</v>
-      </c>
-      <c r="C15">
+        <v>85.913303027105528</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="2"/>
-        <v>32.461044535520003</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="3"/>
-        <v>3654.0890338112022</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="4"/>
-        <v>2354.4507147664003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35.56668452846327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16">
+        <f t="shared" si="3"/>
+        <v>246.87830747091212</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>32.628714153216002</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>3912.8651167369626</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="6"/>
+        <v>2503.7404157491205</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="1"/>
-        <v>246.87830747091212</v>
-      </c>
-      <c r="C16">
+        <v>86.78348272577152</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="2"/>
-        <v>32.628714153216002</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="3"/>
-        <v>3912.8651167369626</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="4"/>
-        <v>2503.7404157491205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.012606081421659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17">
+        <f t="shared" si="3"/>
+        <v>263.3257717456097</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>32.809301344412809</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>4172.6747302599715</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="6"/>
+        <v>2652.0616898880962</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="1"/>
-        <v>263.3257717456097</v>
-      </c>
-      <c r="C17">
+        <v>87.54041386571582</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="2"/>
-        <v>32.809301344412809</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="3"/>
-        <v>4172.6747302599715</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="4"/>
-        <v>2652.0616898880962</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.442165725127964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18">
+        <f t="shared" si="3"/>
+        <v>279.76356254279187</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>32.978577834602248</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>4431.9261051002977</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="6"/>
+        <v>2799.7593120535171</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="1"/>
-        <v>279.76356254279187</v>
-      </c>
-      <c r="C18">
+        <v>88.211982455878996</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="2"/>
-        <v>32.978577834602248</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="3"/>
-        <v>4431.9261051002977</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="4"/>
-        <v>2799.7593120535171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.827482100129544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19">
+        <f t="shared" si="3"/>
+        <v>296.20520738923676</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>33.156849727219395</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>4691.3453699508955</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="6"/>
+        <v>2948.6571383368455</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="1"/>
-        <v>296.20520738923676</v>
-      </c>
-      <c r="C19">
+        <v>88.806121938413881</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="2"/>
-        <v>33.156849727219395</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="3"/>
-        <v>4691.3453699508955</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="4"/>
-        <v>2948.6571383368455</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37.146875665482945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20">
+        <f t="shared" si="3"/>
+        <v>312.64823614616006</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>33.329339738429603</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>4950.6521693646828</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="6"/>
+        <v>3097.0633771923822</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="1"/>
-        <v>312.64823614616006</v>
-      </c>
-      <c r="C20">
+        <v>89.339668072571996</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="2"/>
-        <v>33.329339738429603</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="3"/>
-        <v>4950.6521693646828</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="4"/>
-        <v>3097.0633771923822</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37.44130528180839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21">
+        <f t="shared" si="3"/>
+        <v>329.09000495717896</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>33.505196425546153</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>5210.1661217664705</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>3245.2287980445744</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="1"/>
-        <v>329.09000495717896</v>
-      </c>
-      <c r="C21">
+        <v>89.818834993209279</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="2"/>
-        <v>33.505196425546153</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="3"/>
-        <v>5210.1661217664705</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="4"/>
-        <v>3245.2287980445744</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37.713525400140178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22">
+        <f t="shared" si="3"/>
+        <v>345.53049856414748</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>33.678618633870258</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>5469.4655534716785</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
+        <v>3393.6455475386288</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="1"/>
-        <v>345.53049856414748</v>
-      </c>
-      <c r="C22">
+        <v>90.253069186708032</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="2"/>
-        <v>33.678618633870258</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="3"/>
-        <v>5469.4655534716785</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="4"/>
-        <v>3393.6455475386288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37.952885627288531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23">
+        <f t="shared" si="3"/>
+        <v>361.97310280309904</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>33.854244960992368</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>5728.8809584983073</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>3542.1740738365752</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="1"/>
-        <v>361.97310280309904</v>
-      </c>
-      <c r="C23">
+        <v>90.647303708804046</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="2"/>
-        <v>33.854244960992368</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="3"/>
-        <v>5728.8809584983073</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="4"/>
-        <v>3542.1740738365752</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.169878210123024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24">
+        <f t="shared" si="3"/>
+        <v>378.4148259456781</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>34.028070706107535</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>5988.2674029709533</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="6"/>
+        <v>3690.438599393513</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="1"/>
-        <v>378.4148259456781</v>
-      </c>
-      <c r="C24">
+        <v>91.007733214186402</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="2"/>
-        <v>34.028070706107535</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="3"/>
-        <v>5988.2674029709533</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="4"/>
-        <v>3690.438599393513</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.372180948990703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25">
+        <f t="shared" si="3"/>
+        <v>394.85621691673958</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>34.203047234229814</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>6247.6700323977311</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="6"/>
+        <v>3838.8187952594135</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="1"/>
-        <v>394.85621691673958</v>
-      </c>
-      <c r="C25">
+        <v>91.337847609110341</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="2"/>
-        <v>34.203047234229814</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="3"/>
-        <v>6247.6700323977311</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="4"/>
-        <v>3838.8187952594135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.555993268643356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26">
+        <f t="shared" si="3"/>
+        <v>411.29795522756422</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>34.377381699030607</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>6507.0329150495672</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="6"/>
+        <v>3987.2530766999093</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="1"/>
-        <v>411.29795522756422</v>
-      </c>
-      <c r="C26">
+        <v>91.641732894098595</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="2"/>
-        <v>34.377381699030607</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="3"/>
-        <v>6507.0329150495672</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="4"/>
-        <v>3987.2530766999093</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.723944864668994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27">
+        <f t="shared" si="3"/>
+        <v>427.7399281235879</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>34.552171167913563</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>6766.4405115942081</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="6"/>
+        <v>4135.6239524692273</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="1"/>
-        <v>427.7399281235879</v>
-      </c>
-      <c r="C27">
+        <v>91.922154352181423</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="2"/>
-        <v>34.552171167913563</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="3"/>
-        <v>6766.4405115942081</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="4"/>
-        <v>4135.6239524692273</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.880361906930396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28">
+        <f t="shared" si="3"/>
+        <v>444.18143978019293</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>34.726532175684426</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>7025.8237495832764</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="6"/>
+        <v>4283.9759699032384</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="1"/>
-        <v>444.18143978019293</v>
-      </c>
-      <c r="C28">
+        <v>92.181903820008969</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="2"/>
-        <v>34.726532175684426</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="3"/>
-        <v>7025.8237495832764</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="4"/>
-        <v>4283.9759699032384</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.025285538121643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29">
+        <f t="shared" si="3"/>
+        <v>460.6231548615159</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>34.901254658444451</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>7285.2118740454844</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="6"/>
+        <v>4432.3860482138389</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="1"/>
-        <v>460.6231548615159</v>
-      </c>
-      <c r="C29">
+        <v>92.423035123161085</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="2"/>
-        <v>34.901254658444451</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="3"/>
-        <v>7285.2118740454844</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="4"/>
-        <v>4432.3860482138389</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.159133257266113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30">
+        <f t="shared" si="3"/>
+        <v>477.06494711457452</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>35.075746984585507</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>7544.5981718828198</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>4580.7687882427799</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="1"/>
-        <v>477.06494711457452</v>
-      </c>
-      <c r="C30">
+        <v>92.647595008450381</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="2"/>
-        <v>35.075746984585507</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="3"/>
-        <v>7544.5981718828198</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="4"/>
-        <v>4580.7687882427799</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.284125093442725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31">
+        <f t="shared" si="3"/>
+        <v>493.50664817507163</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>35.250361555623918</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="5"/>
+        <v>7803.9920072664054</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="6"/>
+        <v>4729.1396227549048</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="1"/>
-        <v>493.50664817507163</v>
-      </c>
-      <c r="C31">
+        <v>92.857165818135286</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="2"/>
-        <v>35.250361555623918</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="3"/>
-        <v>7803.9920072664054</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="4"/>
-        <v>4729.1396227549048</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.401019140568863</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32">
+        <f t="shared" si="3"/>
+        <v>509.94830784219329</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>35.424891983746917</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>8063.3764869676197</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>4877.5261239900674</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="1"/>
-        <v>509.94830784219329</v>
-      </c>
-      <c r="C32">
+        <v>93.05323864419816</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="2"/>
-        <v>35.424891983746917</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="3"/>
-        <v>8063.3764869676197</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="4"/>
-        <v>4877.5261239900674</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.510127898984528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33">
+        <f t="shared" si="3"/>
+        <v>526.39006838597652</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>35.599505425608385</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>8322.7661403460042</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>5025.9154754353831</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="1"/>
-        <v>526.39006838597652</v>
-      </c>
-      <c r="C33">
+        <v>93.2370484240396</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="2"/>
-        <v>35.599505425608385</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="3"/>
-        <v>8322.7661403460042</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="4"/>
-        <v>5025.9154754353831</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.612439053508723</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34">
+        <f t="shared" si="3"/>
+        <v>542.83178160882835</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>35.774046081648621</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>8582.15499040742</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>5174.292068784508</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="1"/>
-        <v>542.83178160882835</v>
-      </c>
-      <c r="C34">
+        <v>93.409736258326177</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="2"/>
-        <v>35.774046081648621</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="3"/>
-        <v>8582.15499040742</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="4"/>
-        <v>5174.292068784508</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.708708656881655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35">
+        <f t="shared" si="3"/>
+        <v>559.27347738515277</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>35.948633025475871</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>8841.5438904126968</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>5322.6751399707091</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="1"/>
-        <v>559.27347738515277</v>
-      </c>
-      <c r="C35">
+        <v>93.572262143817127</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="2"/>
-        <v>35.948633025475871</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="3"/>
-        <v>8841.5438904126968</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="4"/>
-        <v>5322.6751399707091</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.799256714177069</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36">
+        <f t="shared" si="3"/>
+        <v>575.71519633548382</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>36.123196725702421</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
+        <v>9100.931383999743</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="6"/>
+        <v>5471.0607799549298</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="1"/>
-        <v>575.71519633548382</v>
-      </c>
-      <c r="C36">
+        <v>93.725509252555412</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="2"/>
-        <v>36.123196725702421</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="3"/>
-        <v>9100.931383999743</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="4"/>
-        <v>5471.0607799549298</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.884605771519745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37">
+        <f t="shared" si="3"/>
+        <v>592.1569221072541</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>36.297775773569995</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="5"/>
+        <v>9360.3208416659782</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="6"/>
+        <v>5619.4426105666353</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="1"/>
-        <v>592.1569221072541</v>
-      </c>
-      <c r="C37">
+        <v>93.870243778557807</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="2"/>
-        <v>36.297775773569995</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="3"/>
-        <v>9360.3208416659782</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="4"/>
-        <v>5619.4426105666353</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.96527784012936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38">
+        <f t="shared" si="3"/>
+        <v>608.59862581530228</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>36.472338808394163</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
+        <v>9619.7091882360492</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="6"/>
+        <v>5767.8241093723109</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="1"/>
-        <v>608.59862581530228</v>
-      </c>
-      <c r="C38">
+        <v>94.00716050590249</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="2"/>
-        <v>36.472338808394163</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="3"/>
-        <v>9619.7091882360492</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="4"/>
-        <v>5767.8241093723109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.04159588913781</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39">
+        <f t="shared" si="3"/>
+        <v>625.04034059091896</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>36.646916543433782</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>9879.097663017541</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="6"/>
+        <v>5916.2084072612779</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="1"/>
-        <v>625.04034059091896</v>
-      </c>
-      <c r="C39">
+        <v>94.13687178834131</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="2"/>
-        <v>36.646916543433782</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="3"/>
-        <v>9879.097663017541</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="4"/>
-        <v>5916.2084072612779</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.113878725901877</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40">
+        <f t="shared" si="3"/>
+        <v>641.48205921422766</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>36.821484910897517</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
+        <v>10138.486198300199</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="6"/>
+        <v>6064.5911686247282</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="1"/>
-        <v>641.48205921422766</v>
-      </c>
-      <c r="C40">
+        <v>94.259935350958784</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="2"/>
-        <v>36.821484910897517</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="3"/>
-        <v>10138.486198300199</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="4"/>
-        <v>6064.5911686247282</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.182478429161279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41">
+        <f t="shared" si="3"/>
+        <v>657.92377208498317</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>36.996057694475766</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="5"/>
+        <v>10397.874990029644</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="6"/>
+        <v>6212.9733873662481</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="1"/>
-        <v>657.92377208498317</v>
-      </c>
-      <c r="C41">
+        <v>94.376847400233927</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="2"/>
-        <v>36.996057694475766</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="3"/>
-        <v>10397.874990029644</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="4"/>
-        <v>6212.9733873662481</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.247662206712732</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42">
+        <f t="shared" si="3"/>
+        <v>674.36548396885235</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="4"/>
+        <v>37.170627729448711</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="5"/>
+        <v>10657.263368287326</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="6"/>
+        <v>6361.356520493734</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="1"/>
-        <v>674.36548396885235</v>
-      </c>
-      <c r="C42">
+        <v>94.488058980912257</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="2"/>
-        <v>37.170627729448711</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="3"/>
-        <v>10657.263368287326</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="4"/>
-        <v>6361.356520493734</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.3096620524258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43">
+        <f t="shared" si="3"/>
+        <v>690.80720067520622</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="4"/>
+        <v>37.345200835275307</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="5"/>
+        <v>10916.65198770855</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="6"/>
+        <v>6509.7396593280046</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="1"/>
-        <v>690.80720067520622</v>
-      </c>
-      <c r="C43">
+        <v>94.593976322369912</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="2"/>
-        <v>37.345200835275307</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="3"/>
-        <v>10916.65198770855</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="4"/>
-        <v>6509.7396593280046</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.368716831336627</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44">
+        <f t="shared" si="3"/>
+        <v>707.24891478379743</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>37.519770963376487</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="5"/>
+        <v>11176.040587279396</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="6"/>
+        <v>6658.1221854155365</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="1"/>
-        <v>707.24891478379743</v>
-      </c>
-      <c r="C44">
+        <v>94.694969454305053</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="2"/>
-        <v>37.519770963376487</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="3"/>
-        <v>11176.040587279396</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="4"/>
-        <v>6658.1221854155365</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.425035741246042</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45">
+        <f t="shared" si="3"/>
+        <v>723.6906280642221</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="4"/>
+        <v>37.694343000422009</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="5"/>
+        <v>11435.429159012214</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="6"/>
+        <v>6806.5050759086625</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="1"/>
-        <v>723.6906280642221</v>
-      </c>
-      <c r="C45">
+        <v>94.791373338459621</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="2"/>
-        <v>37.694343000422009</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="3"/>
-        <v>11435.429159012214</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="4"/>
-        <v>6806.5050759086625</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.478796368175793</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46">
+        <f t="shared" si="3"/>
+        <v>740.132342747439</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="4"/>
+        <v>37.868914198345728</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="5"/>
+        <v>11694.817685550588</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="6"/>
+        <v>6954.8880783044269</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="1"/>
-        <v>740.132342747439</v>
-      </c>
-      <c r="C46">
+        <v>94.883494206215502</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="2"/>
-        <v>37.868914198345728</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="3"/>
-        <v>11694.817685550588</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="4"/>
-        <v>6954.8880783044269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.530171009869889</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47">
+        <f t="shared" si="3"/>
+        <v>756.5740575317601</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="4"/>
+        <v>38.043485876255872</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="5"/>
+        <v>11954.206299316671</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="6"/>
+        <v>7103.270863550687</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="1"/>
-        <v>756.5740575317601</v>
-      </c>
-      <c r="C47">
+        <v>94.971611106998751</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="2"/>
-        <v>38.043485876255872</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="3"/>
-        <v>11954.206299316671</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="4"/>
-        <v>7103.270863550687</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.579318394758459</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48">
+        <f t="shared" si="3"/>
+        <v>773.01577126350981</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="4"/>
+        <v>38.218056969814192</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="5"/>
+        <v>12213.594860219713</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>7251.6536629017401</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="1"/>
-        <v>773.01577126350981</v>
-      </c>
-      <c r="C48">
+        <v>95.055979659076556</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="2"/>
-        <v>38.218056969814192</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="3"/>
-        <v>12213.594860219713</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="4"/>
-        <v>7251.6536629017401</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.626377852758672</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49">
+        <f t="shared" si="3"/>
+        <v>789.45748560623429</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="4"/>
+        <v>38.392628668255639</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="5"/>
+        <v>12472.983424131242</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="6"/>
+        <v>7400.0365960005411</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="1"/>
-        <v>789.45748560623429</v>
-      </c>
-      <c r="C49">
+        <v>95.136833918450534</v>
+      </c>
+      <c r="G49">
         <f t="shared" si="2"/>
-        <v>38.392628668255639</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="3"/>
-        <v>12472.983424131242</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="4"/>
-        <v>7400.0365960005411</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.671478952791425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50">
+        <f t="shared" si="3"/>
+        <v>805.89920012266168</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="4"/>
+        <v>38.567199974759404</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="5"/>
+        <v>12732.37199711824</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="6"/>
+        <v>7548.419442767532</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="1"/>
-        <v>805.89920012266168</v>
-      </c>
-      <c r="C50">
+        <v>95.214389098675198</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="2"/>
-        <v>38.567199974759404</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="3"/>
-        <v>12732.37199711824</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="4"/>
-        <v>7548.419442767532</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.714743140743998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51">
+        <f t="shared" si="3"/>
+        <v>822.34091430179683</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>38.741771440934308</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="5"/>
+        <v>12991.760577652251</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="6"/>
+        <v>7696.8022671178041</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="1"/>
-        <v>822.34091430179683</v>
-      </c>
-      <c r="C51">
+        <v>95.288843013018791</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="2"/>
-        <v>38.741771440934308</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="3"/>
-        <v>12991.760577652251</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="4"/>
-        <v>7696.8022671178041</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.756279942862847</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52">
+        <f t="shared" si="3"/>
+        <v>838.78262848496024</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>38.916342826294503</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="5"/>
+        <v>13251.149139758532</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="6"/>
+        <v>7845.1851425676705</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="1"/>
-        <v>838.78262848496024</v>
-      </c>
-      <c r="C52">
+        <v>95.360378064029945</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="2"/>
-        <v>38.916342826294503</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="3"/>
-        <v>13251.149139758532</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="4"/>
-        <v>7845.1851425676705</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.796190127925556</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53">
+        <f t="shared" si="3"/>
+        <v>855.22434289737157</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="4"/>
+        <v>39.090914321703401</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="5"/>
+        <v>13510.53771355559</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="6"/>
+        <v>7993.568011405795</v>
+      </c>
+      <c r="F53">
         <f t="shared" si="1"/>
-        <v>855.22434289737157</v>
-      </c>
-      <c r="C53">
+        <v>95.429162576304918</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="2"/>
-        <v>39.090914321703401</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="3"/>
-        <v>13510.53771355559</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="4"/>
-        <v>7993.568011405795</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.834567943320479</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54">
+        <f t="shared" si="3"/>
+        <v>871.66605716597712</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="4"/>
+        <v>39.265485693918635</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="5"/>
+        <v>13769.926286889868</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="6"/>
+        <v>8141.950851155063</v>
+      </c>
+      <c r="F54">
         <f t="shared" si="1"/>
-        <v>871.66605716597712</v>
-      </c>
-      <c r="C54">
+        <v>95.495352219910757</v>
+      </c>
+      <c r="G54">
         <f t="shared" si="2"/>
-        <v>39.265485693918635</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="3"/>
-        <v>13769.926286889868</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="4"/>
-        <v>8141.950851155063</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.871500097230822</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55">
+        <f t="shared" si="3"/>
+        <v>888.10777139921527</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="4"/>
+        <v>39.440057147248325</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="5"/>
+        <v>14029.314857628877</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="6"/>
+        <v>8290.3337113216876</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="1"/>
-        <v>888.10777139921527</v>
-      </c>
-      <c r="C55">
+        <v>95.559091090362784</v>
+      </c>
+      <c r="G55">
         <f t="shared" si="2"/>
-        <v>39.440057147248325</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="3"/>
-        <v>14029.314857628877</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="4"/>
-        <v>8290.3337113216876</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.907066414483097</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56">
+        <f t="shared" si="3"/>
+        <v>904.54948571262025</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="4"/>
+        <v>39.614628570095491</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="5"/>
+        <v>14288.703427222399</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="6"/>
+        <v>8438.7165758121519</v>
+      </c>
+      <c r="F56">
         <f t="shared" si="1"/>
-        <v>904.54948571262025</v>
-      </c>
-      <c r="C56">
+        <v>95.620512841385747</v>
+      </c>
+      <c r="G56">
         <f t="shared" si="2"/>
-        <v>39.614628570095491</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="3"/>
-        <v>14288.703427222399</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="4"/>
-        <v>8438.7165758121519</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.941341397463901</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57">
+        <f t="shared" si="3"/>
+        <v>920.99120001917811</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="4"/>
+        <v>39.789200005796133</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="5"/>
+        <v>14548.09200071136</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="6"/>
+        <v>8587.099428373931</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="1"/>
-        <v>920.99120001917811</v>
-      </c>
-      <c r="C57">
+        <v>95.67974156485235</v>
+      </c>
+      <c r="G57">
         <f t="shared" si="2"/>
-        <v>39.789200005796133</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="3"/>
-        <v>14548.09200071136</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="4"/>
-        <v>8587.099428373931</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.97439425077841</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58">
+        <f t="shared" si="3"/>
+        <v>937.43291427594932</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="4"/>
+        <v>39.963771421061089</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="5"/>
+        <v>14807.480571594839</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="6"/>
+        <v>8735.4822831917318</v>
+      </c>
+      <c r="F58">
         <f t="shared" si="1"/>
-        <v>937.43291427594932</v>
-      </c>
-      <c r="C58">
+        <v>95.736892655201018</v>
+      </c>
+      <c r="G58">
         <f t="shared" si="2"/>
-        <v>39.963771421061089</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="3"/>
-        <v>14807.480571594839</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="4"/>
-        <v>8735.4822831917318</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41.006289078312278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59">
+        <f t="shared" si="3"/>
+        <v>953.87462856656032</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="4"/>
+        <v>40.138342861473753</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="5"/>
+        <v>15066.869142557194</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="6"/>
+        <v>8883.8651443085873</v>
+      </c>
+      <c r="F59">
         <f t="shared" si="1"/>
-        <v>953.87462856656032</v>
-      </c>
-      <c r="C59">
+        <v>95.792073543061747</v>
+      </c>
+      <c r="G59">
         <f t="shared" si="2"/>
-        <v>40.138342861473753</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="3"/>
-        <v>15066.869142557194</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="4"/>
-        <v>8883.8651443085873</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41.037085672858034</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60">
+        <f t="shared" si="3"/>
+        <v>970.31634286411042</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="4"/>
+        <v>40.312914284959895</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="5"/>
+        <v>15326.257714211659</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="6"/>
+        <v>9032.2480006076312</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="1"/>
-        <v>970.31634286411042</v>
-      </c>
-      <c r="C60">
+        <v>95.845384386089279</v>
+      </c>
+      <c r="G60">
         <f t="shared" si="2"/>
-        <v>40.312914284959895</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="3"/>
-        <v>15326.257714211659</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="4"/>
-        <v>9032.2480006076312</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41.066839870294942</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61">
+        <f t="shared" si="3"/>
+        <v>986.7580571427925</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="4"/>
+        <v>40.487485714299204</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="5"/>
+        <v>15585.646286006797</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="6"/>
+        <v>9180.6308561164933</v>
+      </c>
+      <c r="F61">
         <f t="shared" si="1"/>
-        <v>986.7580571427925</v>
-      </c>
-      <c r="C61">
+        <v>95.896918659926357</v>
+      </c>
+      <c r="G61">
         <f t="shared" si="2"/>
-        <v>40.487485714299204</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="3"/>
-        <v>15585.646286006797</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="4"/>
-        <v>9180.6308561164933</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41.095603687868213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62">
+        <f t="shared" si="3"/>
+        <v>1003.199771424335</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="4"/>
+        <v>40.662057141789496</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="5"/>
+        <v>15845.034856978678</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="6"/>
+        <v>9329.013714389981</v>
+      </c>
+      <c r="F62">
         <f t="shared" si="1"/>
-        <v>1003.199771424335</v>
-      </c>
-      <c r="C62">
+        <v>95.946763715460392</v>
+      </c>
+      <c r="G62">
         <f t="shared" si="2"/>
-        <v>40.662057141789496</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="3"/>
-        <v>15845.034856978678</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="4"/>
-        <v>9329.013714389981</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41.123425738119003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63">
+        <f t="shared" si="3"/>
+        <v>1019.6414857166507</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="4"/>
+        <v>40.836628573001363</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="5"/>
+        <v>16104.423428535018</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="6"/>
+        <v>9477.3965719842035</v>
+      </c>
+      <c r="F63">
         <f t="shared" si="1"/>
-        <v>1019.6414857166507</v>
-      </c>
-      <c r="C63">
+        <v>95.995001268087918</v>
+      </c>
+      <c r="G63">
         <f t="shared" si="2"/>
-        <v>40.836628573001363</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="3"/>
-        <v>16104.423428535018</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="4"/>
-        <v>9477.3965719842035</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41.150351553775927</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64">
+        <f t="shared" si="3"/>
+        <v>1036.0832000010114</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="4"/>
+        <v>41.011199999070186</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="5"/>
+        <v>16363.812000074668</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="6"/>
+        <v>9625.7794282214527</v>
+      </c>
+      <c r="F64">
         <f t="shared" si="1"/>
-        <v>1036.0832000010114</v>
-      </c>
-      <c r="C64">
+        <v>96.04170784749428</v>
+      </c>
+      <c r="G64">
         <f t="shared" si="2"/>
-        <v>41.011199999070186</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="3"/>
-        <v>16363.812000074668</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="4"/>
-        <v>9625.7794282214527</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41.176423756411218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65">
+        <f t="shared" si="3"/>
+        <v>1052.524914284078</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="4"/>
+        <v>41.185771428700846</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="5"/>
+        <v>16623.200571437636</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="6"/>
+        <v>9774.162285592558</v>
+      </c>
+      <c r="F65">
         <f t="shared" si="1"/>
-        <v>1052.524914284078</v>
-      </c>
-      <c r="C65">
+        <v>96.086955199847679</v>
+      </c>
+      <c r="G65">
         <f t="shared" si="2"/>
-        <v>41.185771428700846</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="3"/>
-        <v>16623.200571437636</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="4"/>
-        <v>9774.162285592558</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41.201682289830835</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66">
+        <f t="shared" si="3"/>
+        <v>1068.9666285715477</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="4"/>
+        <v>41.360342857197409</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="5"/>
+        <v>16882.589142793862</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="6"/>
+        <v>9922.5451430960202</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="1"/>
-        <v>1068.9666285715477</v>
-      </c>
-      <c r="C66">
+        <v>96.130810658470523</v>
+      </c>
+      <c r="G66">
         <f t="shared" si="2"/>
-        <v>41.360342857197409</v>
-      </c>
-      <c r="D66">
+        <v>41.226164664847367</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" ref="A67:A101" si="7">ROW()-1</f>
+        <v>66</v>
+      </c>
+      <c r="B67">
         <f t="shared" si="3"/>
-        <v>16882.589142793862</v>
-      </c>
-      <c r="E66">
+        <v>1085.4083428580805</v>
+      </c>
+      <c r="C67">
         <f t="shared" si="4"/>
-        <v>9922.5451430960202</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <f t="shared" ref="A67:A101" si="5">ROW()-1</f>
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <f t="shared" si="1"/>
-        <v>1085.4083428580805</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="2"/>
         <v>41.534914285906453</v>
       </c>
       <c r="D67">
+        <f t="shared" si="5"/>
+        <v>17141.977714323872</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="6"/>
+        <v>10070.927999962974</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F101" si="8">((B67-C67)/B67)*100</f>
+        <v>96.173337476240732</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G101" si="9">((D67-E67)/D67)*100</f>
+        <v>41.249906120530731</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="B68">
         <f t="shared" si="3"/>
-        <v>17141.977714323872</v>
-      </c>
-      <c r="E67">
+        <v>1101.8500571422924</v>
+      </c>
+      <c r="C68">
         <f t="shared" si="4"/>
-        <v>10070.927999962974</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
+        <v>41.709485713956475</v>
+      </c>
+      <c r="D68">
         <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="1"/>
-        <v>1101.8500571422924</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="2"/>
-        <v>41.709485713956475</v>
-      </c>
-      <c r="D68">
+        <v>17401.366285722081</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>10219.310857021073</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="8"/>
+        <v>96.214595130835477</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="9"/>
+        <v>41.272939784009516</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="B69">
         <f t="shared" si="3"/>
-        <v>17401.366285722081</v>
-      </c>
-      <c r="E68">
+        <v>1118.2917714283715</v>
+      </c>
+      <c r="C69">
         <f t="shared" si="4"/>
-        <v>10219.310857021073</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
+        <v>41.884057143059735</v>
+      </c>
+      <c r="D69">
         <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="1"/>
-        <v>1118.2917714283715</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="2"/>
-        <v>41.884057143059735</v>
-      </c>
-      <c r="D69">
+        <v>17660.754857124743</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>10367.693714369714</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="8"/>
+        <v>96.254639601831101</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="9"/>
+        <v>41.295296841815599</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="B70">
         <f t="shared" si="3"/>
-        <v>17660.754857124743</v>
-      </c>
-      <c r="E69">
+        <v>1134.7334857146734</v>
+      </c>
+      <c r="C70">
         <f t="shared" si="4"/>
-        <v>10367.693714369714</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
+        <v>42.058628571407233</v>
+      </c>
+      <c r="D70">
         <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="1"/>
-        <v>1134.7334857146734</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="2"/>
-        <v>42.058628571407233</v>
-      </c>
-      <c r="D70">
+        <v>17920.143428571169</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>10516.076571452279</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="8"/>
+        <v>96.293523624631732</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="9"/>
+        <v>41.317006678161619</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="B71">
         <f t="shared" si="3"/>
-        <v>17920.143428571169</v>
-      </c>
-      <c r="E70">
+        <v>1151.1751999999558</v>
+      </c>
+      <c r="C71">
         <f t="shared" si="4"/>
-        <v>10516.076571452279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
+        <v>42.233199999977344</v>
+      </c>
+      <c r="D71">
         <f t="shared" si="5"/>
+        <v>18179.532000013794</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>10664.459428516191</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="8"/>
+        <v>96.331296921617223</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="9"/>
+        <v>41.338096995521674</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ref="B72:B101" si="10">_xlfn.FORECAST.LINEAR(A72,B67:B71,A67:A71)</f>
+        <v>1167.6169142855142</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ref="C72:C101" si="11">_xlfn.FORECAST.LINEAR(A72,C67:C71,A67:A71)</f>
+        <v>42.407771428539206</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72:D101" si="12">_xlfn.FORECAST.LINEAR(A72,D67:D71,A67:A71)</f>
+        <v>18438.920571419814</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ref="E72:E101" si="13">_xlfn.FORECAST.LINEAR(A72,E67:E71,A67:A71)</f>
+        <v>10812.842285725737</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="8"/>
+        <v>96.368006414630486</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="9"/>
+        <v>41.358593938055357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="10"/>
+        <v>1184.0586285715699</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="11"/>
+        <v>42.582342857212922</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="12"/>
+        <v>18698.30914285568</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="13"/>
+        <v>10961.225142883743</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="8"/>
+        <v>96.403696419274127</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="9"/>
+        <v>41.378522201448099</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="10"/>
+        <v>1200.5003428571883</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="11"/>
+        <v>42.756914285670788</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="12"/>
+        <v>18957.697714290196</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="13"/>
+        <v>11109.607999979988</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="8"/>
+        <v>96.438408823448611</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="9"/>
+        <v>41.397905128502849</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="10"/>
+        <v>1216.9420571427734</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="11"/>
+        <v>42.931485714290304</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="12"/>
+        <v>19217.086285714115</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="13"/>
+        <v>11257.990857138477</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="8"/>
+        <v>96.472183251264397</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="9"/>
+        <v>41.416764801084284</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="10"/>
+        <v>1233.383771428593</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="11"/>
+        <v>43.10605714286536</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="12"/>
+        <v>19476.474857140027</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="13"/>
+        <v>11406.373714298474</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="8"/>
+        <v>96.505057214030231</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="9"/>
+        <v>41.435122125722224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="10"/>
+        <v>1249.8254857143361</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="11"/>
+        <v>43.280628571434626</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="12"/>
+        <v>19735.863428573626</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="13"/>
+        <v>11554.756571425347</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="8"/>
+        <v>96.537066249157363</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="9"/>
+        <v>41.452996909695145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="10"/>
+        <v>1266.2671999999732</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="11"/>
+        <v>43.455199999986192</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="12"/>
+        <v>19995.252000000448</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="13"/>
+        <v>11703.139428565713</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="8"/>
+        <v>96.568244048334577</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="9"/>
+        <v>41.47040793201581</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="10"/>
+        <v>1282.7089142857126</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="11"/>
+        <v>43.629771428581989</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="12"/>
+        <v>20254.640571427684</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="13"/>
+        <v>11851.522285719097</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="8"/>
+        <v>96.598622575810381</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="9"/>
+        <v>41.487373010027596</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="10"/>
+        <v>1299.1506285714552</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="11"/>
+        <v>43.804342857142956</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="12"/>
+        <v>20514.029142857453</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="13"/>
+        <v>11999.905142857966</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="8"/>
+        <v>96.628232177718289</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="9"/>
+        <v>41.5039090600294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="10"/>
+        <v>1315.5923428571443</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="11"/>
+        <v>43.978914285712989</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="12"/>
+        <v>20773.417714286523</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="13"/>
+        <v>12148.287999997141</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="8"/>
+        <v>96.657101683170211</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="9"/>
+        <v>41.520032153195537</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="10"/>
+        <v>1332.034057142854</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="11"/>
+        <v>44.1534857142858</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="12"/>
+        <v>21032.806285713988</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="13"/>
+        <v>12296.670857143805</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="8"/>
+        <v>96.685258497895106</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="9"/>
+        <v>41.535757567947492</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="10"/>
+        <v>1348.4757714285859</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="11"/>
+        <v>44.328057142861049</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="12"/>
+        <v>21292.194857142997</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="13"/>
+        <v>12445.053714287014</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="8"/>
+        <v>96.712728691009431</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="9"/>
+        <v>41.551099838295855</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="7"/>
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="10"/>
+        <v>1364.9174857142939</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="11"/>
+        <v>44.502628571427238</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="12"/>
+        <v>21551.583428571877</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="13"/>
+        <v>12593.436571427506</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="8"/>
+        <v>96.739537075522335</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="9"/>
+        <v>41.56607279847551</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="10"/>
+        <v>1381.3592000000024</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="11"/>
+        <v>44.677200000000994</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="12"/>
+        <v>21810.972000000165</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="13"/>
+        <v>12741.819428571373</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="8"/>
+        <v>96.765707283087494</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="9"/>
+        <v>41.580689624601433</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="10"/>
+        <v>1397.8009142857231</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="11"/>
+        <v>44.851771428572846</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="12"/>
+        <v>22070.36057142866</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="13"/>
+        <v>12890.202285715019</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="8"/>
+        <v>96.791261833485635</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="9"/>
+        <v>41.594962873410779</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="10"/>
+        <v>1414.2426285714387</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="11"/>
+        <v>45.026342857143796</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="12"/>
+        <v>22329.74914285749</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="13"/>
+        <v>13038.585142856977</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="8"/>
+        <v>96.816222199254014</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="9"/>
+        <v>41.608904518179209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="10"/>
+        <v>1430.6843428571492</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="11"/>
+        <v>45.200914285714511</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="12"/>
+        <v>22589.137714285967</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="13"/>
+        <v>13186.967999999808</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="8"/>
+        <v>96.840608865863032</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="9"/>
+        <v>41.622525982211265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="10"/>
+        <v>1447.1260571428654</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="11"/>
+        <v>45.37548571428708</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="12"/>
+        <v>22848.526285714488</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="13"/>
+        <v>13335.350857143199</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="8"/>
+        <v>96.864441387789384</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="9"/>
+        <v>41.635838170093194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="7"/>
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="10"/>
+        <v>1463.5677714285816</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="11"/>
+        <v>45.550057142857995</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="12"/>
+        <v>23107.914857143136</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="13"/>
+        <v>13483.733714285809</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="8"/>
+        <v>96.887738440810523</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="9"/>
+        <v>41.648851496794805</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="10"/>
+        <v>1480.0094857142947</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="11"/>
+        <v>45.724628571429321</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="12"/>
+        <v>23367.303428571737</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="13"/>
+        <v>13632.116571428503</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="8"/>
+        <v>96.910517870812072</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="9"/>
+        <v>41.661575914830621</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="7"/>
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="10"/>
+        <v>1496.4512000000093</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="11"/>
+        <v>45.899200000000903</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="12"/>
+        <v>23626.692000000265</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="13"/>
+        <v>13780.499428571577</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="8"/>
+        <v>96.932796739379086</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="9"/>
+        <v>41.674020939658327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="10"/>
+        <v>1512.8929142857248</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="11"/>
+        <v>46.073771428572471</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="12"/>
+        <v>23886.080571428869</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="13"/>
+        <v>13928.882285714431</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="8"/>
+        <v>96.954591366413737</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="9"/>
+        <v>41.686195673410964</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="7"/>
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="10"/>
+        <v>1529.3346285714395</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="11"/>
+        <v>46.248342857143655</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="12"/>
+        <v>24145.469142857466</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="13"/>
+        <v>14077.265142857172</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="8"/>
+        <v>96.975917370003941</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="9"/>
+        <v>41.698108827090635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="10"/>
+        <v>1545.7763428571536</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="11"/>
+        <v>46.422914285715215</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="12"/>
+        <v>24404.85771428603</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="13"/>
+        <v>14225.648000000094</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="8"/>
+        <v>96.996789703747893</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="9"/>
+        <v>41.709768741357038</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="7"/>
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="10"/>
+        <v>1562.2180571428689</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="11"/>
+        <v>46.597485714286677</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="12"/>
+        <v>24664.246285714613</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="13"/>
+        <v>14374.030857142989</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="8"/>
+        <v>97.0172226917215</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="9"/>
+        <v>41.721183406004407</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="10"/>
+        <v>1578.6597714285836</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="11"/>
+        <v>46.772057142858074</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="12"/>
+        <v>24923.634857143206</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="13"/>
+        <v>14522.413714285798</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="8"/>
+        <v>97.037230061260601</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="9"/>
+        <v>41.732360478216442</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="7"/>
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="10"/>
+        <v>1595.1014857142982</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="11"/>
+        <v>46.946628571429486</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="12"/>
+        <v>25183.023428571785</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="13"/>
+        <v>14670.796571428662</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="8"/>
+        <v>97.056824973715919</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="9"/>
+        <v>41.74330729969585</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="10"/>
+        <v>1611.5432000000128</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="11"/>
+        <v>47.121200000000975</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="12"/>
+        <v>25442.412000000364</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="13"/>
+        <v>14819.179428571544</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="8"/>
+        <v>97.076020053325252</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="9"/>
+        <v>41.754030912747844</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="10"/>
+        <v>1627.9849142857277</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="11"/>
+        <v>47.295771428572387</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="12"/>
+        <v>25701.80057142895</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="13"/>
+        <v>14967.56228571439</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="8"/>
+        <v>97.094827414336123</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="9"/>
+        <v>41.764538075387328</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="10"/>
+        <v>1644.4266285714421</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="11"/>
+        <v>47.47034285714382</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="12"/>
+        <v>25961.189142857529</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="13"/>
+        <v>15115.945142857243</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="8"/>
+        <v>97.11325868650141</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="9"/>
+        <v>41.774835275540688</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31392A7-1B59-4DEA-9364-8EFB6AD26FF1}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>80.705501074982493</v>
+      </c>
+      <c r="C2">
+        <v>32.754474867063422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>89.818834993209279</v>
+      </c>
+      <c r="C3">
+        <v>37.713525400140178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>92.857165818135286</v>
+      </c>
+      <c r="C4">
+        <v>39.401019140568863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>94.376847400233927</v>
+      </c>
+      <c r="C5">
+        <v>40.247662206712732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>95.288843013018791</v>
+      </c>
+      <c r="C6">
+        <v>40.756279942862847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>95.896918659926357</v>
+      </c>
+      <c r="C7">
+        <v>41.095603687868213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>70</v>
       </c>
-      <c r="B71">
-        <f t="shared" si="1"/>
-        <v>1151.1751999999558</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="2"/>
-        <v>42.233199999977344</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="3"/>
-        <v>18179.532000013794</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="4"/>
-        <v>10664.459428516191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <f t="shared" ref="B72:B101" si="6">_xlfn.FORECAST.LINEAR(A72,B67:B71,A67:A71)</f>
-        <v>1167.6169142855142</v>
-      </c>
-      <c r="C72">
-        <f t="shared" ref="C72:C101" si="7">_xlfn.FORECAST.LINEAR(A72,C67:C71,A67:A71)</f>
-        <v>42.407771428539206</v>
-      </c>
-      <c r="D72">
-        <f t="shared" ref="D72:D101" si="8">_xlfn.FORECAST.LINEAR(A72,D67:D71,A67:A71)</f>
-        <v>18438.920571419814</v>
-      </c>
-      <c r="E72">
-        <f t="shared" ref="E72:E101" si="9">_xlfn.FORECAST.LINEAR(A72,E67:E71,A67:A71)</f>
-        <v>10812.842285725737</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="6"/>
-        <v>1184.0586285715699</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="7"/>
-        <v>42.582342857212922</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="8"/>
-        <v>18698.30914285568</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="9"/>
-        <v>10961.225142883743</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <f t="shared" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="6"/>
-        <v>1200.5003428571883</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="7"/>
-        <v>42.756914285670788</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="8"/>
-        <v>18957.697714290196</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="9"/>
-        <v>11109.607999979988</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="6"/>
-        <v>1216.9420571427734</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="7"/>
-        <v>42.931485714290304</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="8"/>
-        <v>19217.086285714115</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="9"/>
-        <v>11257.990857138477</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="6"/>
-        <v>1233.383771428593</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="7"/>
-        <v>43.10605714286536</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="8"/>
-        <v>19476.474857140027</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="9"/>
-        <v>11406.373714298474</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f t="shared" si="5"/>
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="6"/>
-        <v>1249.8254857143361</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="7"/>
-        <v>43.280628571434626</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="8"/>
-        <v>19735.863428573626</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="9"/>
-        <v>11554.756571425347</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f t="shared" si="5"/>
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="6"/>
-        <v>1266.2671999999732</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="7"/>
-        <v>43.455199999986192</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="8"/>
-        <v>19995.252000000448</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="9"/>
-        <v>11703.139428565713</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f t="shared" si="5"/>
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="6"/>
-        <v>1282.7089142857126</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="7"/>
-        <v>43.629771428581989</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="8"/>
-        <v>20254.640571427684</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="9"/>
-        <v>11851.522285719097</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f t="shared" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="6"/>
-        <v>1299.1506285714552</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="7"/>
-        <v>43.804342857142956</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="8"/>
-        <v>20514.029142857453</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="9"/>
-        <v>11999.905142857966</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f t="shared" si="5"/>
+      <c r="B8">
+        <v>96.331296921617223</v>
+      </c>
+      <c r="C8">
+        <v>41.338096995521674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>80</v>
       </c>
-      <c r="B81">
-        <f t="shared" si="6"/>
-        <v>1315.5923428571443</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="7"/>
-        <v>43.978914285712989</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="8"/>
-        <v>20773.417714286523</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="9"/>
-        <v>12148.287999997141</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="6"/>
-        <v>1332.034057142854</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="7"/>
-        <v>44.1534857142858</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="8"/>
-        <v>21032.806285713988</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="9"/>
-        <v>12296.670857143805</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="6"/>
-        <v>1348.4757714285859</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="7"/>
-        <v>44.328057142861049</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="8"/>
-        <v>21292.194857142997</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="9"/>
-        <v>12445.053714287014</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <f t="shared" si="5"/>
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="6"/>
-        <v>1364.9174857142939</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="7"/>
-        <v>44.502628571427238</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="8"/>
-        <v>21551.583428571877</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="9"/>
-        <v>12593.436571427506</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f t="shared" si="5"/>
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="6"/>
-        <v>1381.3592000000024</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="7"/>
-        <v>44.677200000000994</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="8"/>
-        <v>21810.972000000165</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="9"/>
-        <v>12741.819428571373</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f t="shared" si="5"/>
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="6"/>
-        <v>1397.8009142857231</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="7"/>
-        <v>44.851771428572846</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="8"/>
-        <v>22070.36057142866</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="9"/>
-        <v>12890.202285715019</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f t="shared" si="5"/>
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="6"/>
-        <v>1414.2426285714387</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="7"/>
-        <v>45.026342857143796</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="8"/>
-        <v>22329.74914285749</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="9"/>
-        <v>13038.585142856977</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f t="shared" si="5"/>
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="6"/>
-        <v>1430.6843428571492</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="7"/>
-        <v>45.200914285714511</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="8"/>
-        <v>22589.137714285967</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="9"/>
-        <v>13186.967999999808</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f t="shared" si="5"/>
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="6"/>
-        <v>1447.1260571428654</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="7"/>
-        <v>45.37548571428708</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="8"/>
-        <v>22848.526285714488</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="9"/>
-        <v>13335.350857143199</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f t="shared" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="6"/>
-        <v>1463.5677714285816</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="7"/>
-        <v>45.550057142857995</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="8"/>
-        <v>23107.914857143136</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="9"/>
-        <v>13483.733714285809</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f t="shared" si="5"/>
+      <c r="B9">
+        <v>96.657101683170211</v>
+      </c>
+      <c r="C9">
+        <v>41.520032153195537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>90</v>
       </c>
-      <c r="B91">
-        <f t="shared" si="6"/>
-        <v>1480.0094857142947</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="7"/>
-        <v>45.724628571429321</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="8"/>
-        <v>23367.303428571737</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="9"/>
-        <v>13632.116571428503</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <f t="shared" si="5"/>
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="6"/>
-        <v>1496.4512000000093</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="7"/>
-        <v>45.899200000000903</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="8"/>
-        <v>23626.692000000265</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="9"/>
-        <v>13780.499428571577</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <f t="shared" si="5"/>
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="6"/>
-        <v>1512.8929142857248</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="7"/>
-        <v>46.073771428572471</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="8"/>
-        <v>23886.080571428869</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="9"/>
-        <v>13928.882285714431</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <f t="shared" si="5"/>
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="6"/>
-        <v>1529.3346285714395</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="7"/>
-        <v>46.248342857143655</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="8"/>
-        <v>24145.469142857466</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="9"/>
-        <v>14077.265142857172</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <f t="shared" si="5"/>
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="6"/>
-        <v>1545.7763428571536</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="7"/>
-        <v>46.422914285715215</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="8"/>
-        <v>24404.85771428603</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="9"/>
-        <v>14225.648000000094</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="6"/>
-        <v>1562.2180571428689</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="7"/>
-        <v>46.597485714286677</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="8"/>
-        <v>24664.246285714613</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="9"/>
-        <v>14374.030857142989</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <f t="shared" si="5"/>
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="6"/>
-        <v>1578.6597714285836</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="7"/>
-        <v>46.772057142858074</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="8"/>
-        <v>24923.634857143206</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="9"/>
-        <v>14522.413714285798</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <f t="shared" si="5"/>
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="6"/>
-        <v>1595.1014857142982</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="7"/>
-        <v>46.946628571429486</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="8"/>
-        <v>25183.023428571785</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="9"/>
-        <v>14670.796571428662</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <f t="shared" si="5"/>
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="6"/>
-        <v>1611.5432000000128</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="7"/>
-        <v>47.121200000000975</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="8"/>
-        <v>25442.412000000364</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="9"/>
-        <v>14819.179428571544</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="6"/>
-        <v>1627.9849142857277</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="7"/>
-        <v>47.295771428572387</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="8"/>
-        <v>25701.80057142895</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="9"/>
-        <v>14967.56228571439</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <f t="shared" si="5"/>
+      <c r="B10">
+        <v>96.910517870812072</v>
+      </c>
+      <c r="C10">
+        <v>41.661575914830621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>100</v>
       </c>
-      <c r="B101">
-        <f t="shared" si="6"/>
-        <v>1644.4266285714421</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="7"/>
-        <v>47.47034285714382</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="8"/>
-        <v>25961.189142857529</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="9"/>
-        <v>15115.945142857243</v>
+      <c r="B11">
+        <v>97.11325868650141</v>
+      </c>
+      <c r="C11">
+        <v>41.774835275540688</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/memory-footprint/results/memory_footprint.xlsx
+++ b/evaluation/memory-footprint/results/memory_footprint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ Projects\heap-isolation\evaluation\memory-footprint\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6217B1-B1A3-463F-A85C-D7EA2C2440A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD7C961-BFE8-4BD3-8444-7773B042BC5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7C97128D-8888-49D2-A6E7-762D2B687F99}"/>
   </bookViews>
@@ -1788,7 +1788,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1925,12 +1925,17 @@
             <c:v>Worst Case</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-            <a:ln w="19050">
+            <a:pattFill prst="dkUpDiag">
+              <a:fgClr>
+                <a:srgbClr val="C00000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="9525">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -2361,7 +2366,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3847,7 +3852,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" activeCellId="19" sqref="G11 F21 G21 F31 G31 F41 G41 F51 G51 F61 G61 F71 G71 F81 G81 F91 G91 F101 G101 F11"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6871,7 +6876,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
